--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB36B49-140E-4E45-A01B-A06E8F0C7E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C9784-D5B4-9D47-A7BD-A63CD02E04FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47140" yWindow="-9120" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="67020" yWindow="-6100" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C9784-D5B4-9D47-A7BD-A63CD02E04FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4141A9E-BB72-B641-A2C9-DD49CF58D8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67020" yWindow="-6100" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4141A9E-BB72-B641-A2C9-DD49CF58D8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87965870-78BD-B149-8EEC-8D6E6EAF04E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="51500" yWindow="-900" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>code</t>
   </si>
@@ -264,6 +264,65 @@
   <si>
     <t>营业点/网点</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>236f7ddc-ffdd-43bb-8095-22732c943d31</t>
+  </si>
+  <si>
+    <t>文件分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file.category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTful接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open.source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eaae9d54-0a22-4d7f-b714-b8c236d607f8</t>
+  </si>
+  <si>
+    <t>f2fcd6ee-284f-4531-a05e-ee0b355adf2c</t>
+  </si>
+  <si>
+    <t>e3b8c537-397c-4f41-922a-3b16dbd5f723</t>
+  </si>
+  <si>
+    <t>43d3a70f-e2a6-40aa-9fc5-e51ca7d7fb9b</t>
   </si>
 </sst>
 </file>
@@ -728,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E8"/>
+      <selection activeCell="A21" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1121,6 +1180,106 @@
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87965870-78BD-B149-8EEC-8D6E6EAF04E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1910A7C2-1567-2C4E-B951-32DE5EA46188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51500" yWindow="-900" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="47160" yWindow="660" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file.category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.integration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +319,10 @@
   </si>
   <si>
     <t>43d3a70f-e2a6-40aa-9fc5-e51ca7d7fb9b</t>
+  </si>
+  <si>
+    <t>zero.file.tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1194,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -1202,19 +1202,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
@@ -1222,19 +1222,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
@@ -1242,19 +1242,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
@@ -1262,19 +1262,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5">
         <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1910A7C2-1567-2C4E-B951-32DE5EA46188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA75347B-FBDF-6843-A4DB-CDAE66185F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47160" yWindow="660" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="68720" yWindow="-5680" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>code</t>
   </si>
@@ -323,6 +323,120 @@
   <si>
     <t>zero.file.tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.workflow.cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.oa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.doc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.cooperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow.external</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42562419-9803-4af3-b50f-c60299127acb</t>
+  </si>
+  <si>
+    <t>c2602ee8-1845-4415-bf05-e3e4a8923336</t>
+  </si>
+  <si>
+    <t>1c0f1c2f-c97e-4082-83f5-2fd0427f31d2</t>
+  </si>
+  <si>
+    <t>fc04b690-c9e2-48c4-a8d4-f761dc614020</t>
+  </si>
+  <si>
+    <t>01af2235-80b5-41f2-9885-1db54e2aba1d</t>
+  </si>
+  <si>
+    <t>5848fe9e-bb2c-44d8-ae8d-fda9aea0d4bd</t>
+  </si>
+  <si>
+    <t>1b57f245-8a63-4188-9f5c-7e8d9282af23</t>
+  </si>
+  <si>
+    <t>0d23a36e-58a8-47cd-9b79-632458b578e2</t>
+  </si>
+  <si>
+    <t>cb71b345-b746-4bf8-ba80-e0f4e4b2fda0</t>
+  </si>
+  <si>
+    <t>02f2f67a-76ad-4012-af8f-d7e7227477cc</t>
   </si>
 </sst>
 </file>
@@ -787,16 +901,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="55.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" bestFit="1" customWidth="1"/>
@@ -1280,6 +1394,206 @@
       <c r="G24" s="10"/>
       <c r="H24" s="9"/>
     </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="5">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA75347B-FBDF-6843-A4DB-CDAE66185F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FB5728-8B4C-7D4C-A22B-D9437954F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68720" yWindow="-5680" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>code</t>
   </si>
@@ -266,9 +266,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>236f7ddc-ffdd-43bb-8095-22732c943d31</t>
-  </si>
-  <si>
     <t>文件分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,6 +434,20 @@
   </si>
   <si>
     <t>02f2f67a-76ad-4012-af8f-d7e7227477cc</t>
+  </si>
+  <si>
+    <t>504b146a-2509-4a85-86e2-be84cd1f462b</t>
+  </si>
+  <si>
+    <t>2ec0aac8-9cbb-4911-9a31-4be1144bc250</t>
+  </si>
+  <si>
+    <t>服务目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.service.catalog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -901,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1296,7 +1307,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>45</v>
@@ -1305,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -1316,19 +1327,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
@@ -1336,19 +1347,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
@@ -1356,19 +1367,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="5">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
@@ -1376,19 +1387,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
@@ -1396,19 +1407,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
@@ -1416,19 +1427,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
@@ -1436,19 +1447,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
@@ -1456,19 +1467,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
@@ -1476,19 +1487,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
@@ -1496,19 +1507,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
@@ -1516,19 +1527,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
@@ -1536,19 +1547,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
@@ -1556,19 +1567,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
@@ -1576,23 +1587,43 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FB5728-8B4C-7D4C-A22B-D9437954F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AEB095-921A-BE40-B9BD-CE4FEC067E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68720" yWindow="-5680" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="133">
   <si>
     <t>code</t>
   </si>
@@ -448,6 +448,54 @@
   <si>
     <t>zero.service.catalog</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.attachment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE.REQUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE.CONTRACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE.COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE.CREDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48352a99-7abf-4772-8ccc-5c1d56bf0db2</t>
+  </si>
+  <si>
+    <t>8f709cb1-6ce3-4614-a7b7-ad3df1af5fa9</t>
+  </si>
+  <si>
+    <t>62428f80-5e9a-4c3c-b440-c9091b6c2394</t>
+  </si>
+  <si>
+    <t>302ba2f5-05b8-4133-8a92-8dd7c0778e42</t>
   </si>
 </sst>
 </file>
@@ -912,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1625,6 +1673,86 @@
       <c r="G35" s="10"/>
       <c r="H35" s="9"/>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AEB095-921A-BE40-B9BD-CE4FEC067E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D004FD-A0FA-2F42-8E14-52744A37120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68720" yWindow="-5680" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
   <si>
     <t>code</t>
   </si>
@@ -496,6 +496,21 @@
   </si>
   <si>
     <t>302ba2f5-05b8-4133-8a92-8dd7c0778e42</t>
+  </si>
+  <si>
+    <t>zero.tabular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8e4dad5-9525-433d-91e2-ae181e364f13</t>
   </si>
 </sst>
 </file>
@@ -960,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1753,6 +1768,26 @@
       <c r="G39" s="10"/>
       <c r="H39" s="9"/>
     </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D004FD-A0FA-2F42-8E14-52744A37120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EE54C-EF93-8443-AC74-48A2C121EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68720" yWindow="-5680" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="52080" yWindow="-4060" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
   <si>
     <t>code</t>
   </si>
@@ -49,18 +49,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>配置数据</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
     <t>X_TABULAR</t>
   </si>
   <si>
@@ -80,12 +68,6 @@
   </si>
   <si>
     <t>列表字典代码</t>
-  </si>
-  <si>
-    <t>列表项图标</t>
-  </si>
-  <si>
-    <t>列表备注</t>
   </si>
   <si>
     <t>sort</t>
@@ -511,6 +493,54 @@
   </si>
   <si>
     <t>d8e4dad5-9525-433d-91e2-ae181e364f13</t>
+  </si>
+  <si>
+    <t>zero.wh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网店库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.assert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.commodity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d2f61ef-1127-434b-a10e-7fa44511e298</t>
+  </si>
+  <si>
+    <t>90c40e94-e601-4502-9de3-9c8750a8317e</t>
+  </si>
+  <si>
+    <t>31db01bd-b70d-4eb1-ba02-d12dde7b753d</t>
+  </si>
+  <si>
+    <t>ac8e1431-8ab2-42fb-b0fc-7f7490dfeb2c</t>
   </si>
 </sst>
 </file>
@@ -601,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -624,11 +654,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,16 +718,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1001,46 +1070,40 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
@@ -1050,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
@@ -1058,739 +1121,813 @@
       <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="12" t="s">
         <v>30</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+        <v>110</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>111</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>86</v>
+        <v>103</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C32" s="5">
         <v>7</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="9"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="9"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="5">
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>86</v>
+        <v>109</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="5">
         <v>10</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="9"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="C38" s="5">
         <v>3</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="C39" s="5">
         <v>4</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E43" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EE54C-EF93-8443-AC74-48A2C121EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A003F-741F-4540-9F94-0486E6C61F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52080" yWindow="-4060" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>code</t>
   </si>
@@ -541,6 +541,43 @@
   </si>
   <si>
     <t>ac8e1431-8ab2-42fb-b0fc-7f7490dfeb2c</t>
+  </si>
+  <si>
+    <t>zero.close.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途撤销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close.normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close.cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close.terminal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b6032093-0759-4a03-9aee-d7b5b62809d4</t>
+  </si>
+  <si>
+    <t>4d1fefb7-5381-4f34-bdd4-124ae868c452</t>
+  </si>
+  <si>
+    <t>1aa81730-8d64-4aad-9d32-7bb0085c5f7e</t>
+  </si>
+  <si>
+    <t>工单正常关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统强制关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -722,14 +759,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A44"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1076,14 +1113,14 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
@@ -1924,6 +1961,57 @@
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A003F-741F-4540-9F94-0486E6C61F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDE9C9-D864-9147-B696-8D306DEFE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="70580" yWindow="-2060" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
   <si>
     <t>code</t>
   </si>
@@ -577,6 +577,17 @@
   </si>
   <si>
     <t>系统强制关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0c7c9b9d-c7d3-496e-a62c-19cc9cced955</t>
+  </si>
+  <si>
+    <t>供应商账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1081,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1404,19 +1415,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -1424,19 +1435,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -1444,19 +1455,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -1464,19 +1475,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -1484,19 +1495,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1504,19 +1515,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -1524,19 +1535,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -1544,19 +1555,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -1564,19 +1575,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1584,19 +1595,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -1604,19 +1615,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -1624,19 +1635,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -1644,19 +1655,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -1664,19 +1675,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C30" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -1684,19 +1695,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -1704,19 +1715,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -1724,19 +1735,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -1744,19 +1755,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -1764,19 +1775,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
@@ -1784,19 +1795,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C36" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -1804,19 +1815,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C37" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -1824,19 +1835,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
@@ -1844,19 +1855,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -1864,19 +1875,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C40" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -1884,19 +1895,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -1904,19 +1915,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -1924,19 +1935,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
@@ -1944,19 +1955,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C44" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
@@ -1964,52 +1975,72 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C45" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>146</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C46" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="5">
         <v>3</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>148</v>
       </c>
     </row>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDE9C9-D864-9147-B696-8D306DEFE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63AAABE-4157-154F-AE14-315CE9B3705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70580" yWindow="-2060" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="70580" yWindow="-7260" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
   <si>
     <t>code</t>
   </si>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开源接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ftp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>open.source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eaae9d54-0a22-4d7f-b714-b8c236d607f8</t>
   </si>
   <si>
@@ -432,54 +424,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.attachment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凭证单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE.REQUEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE.CONTRACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE.COMMON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FILE.CREDIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48352a99-7abf-4772-8ccc-5c1d56bf0db2</t>
-  </si>
-  <si>
-    <t>8f709cb1-6ce3-4614-a7b7-ad3df1af5fa9</t>
-  </si>
-  <si>
-    <t>62428f80-5e9a-4c3c-b440-c9091b6c2394</t>
-  </si>
-  <si>
-    <t>302ba2f5-05b8-4133-8a92-8dd7c0778e42</t>
-  </si>
-  <si>
     <t>zero.tabular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,6 +533,14 @@
   <si>
     <t>vendor</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1092,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1415,7 +1367,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>24</v>
@@ -1424,10 +1376,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -1495,7 +1447,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>39</v>
@@ -1507,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1515,7 +1467,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>39</v>
@@ -1524,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -1535,7 +1487,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>65</v>
@@ -1547,7 +1499,7 @@
         <v>67</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -1555,7 +1507,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>65</v>
@@ -1567,7 +1519,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -1575,7 +1527,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>65</v>
@@ -1587,7 +1539,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1595,7 +1547,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>65</v>
@@ -1604,10 +1556,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -1615,19 +1567,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -1635,19 +1587,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -1655,19 +1607,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -1675,19 +1627,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -1695,19 +1647,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="5">
         <v>5</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -1715,19 +1667,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5">
         <v>6</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -1735,19 +1687,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="5">
         <v>7</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -1755,19 +1707,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" s="5">
         <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -1775,19 +1727,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5">
         <v>9</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
@@ -1795,19 +1747,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="5">
         <v>10</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -1815,19 +1767,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -1835,16 +1787,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>121</v>
@@ -1855,19 +1807,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -1875,19 +1827,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -1895,19 +1847,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C41" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -1915,133 +1867,53 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="5">
         <v>2</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
+        <v>132</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="5">
         <v>3</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="5">
-        <v>4</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="5">
-        <v>3</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63AAABE-4157-154F-AE14-315CE9B3705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D961F95-962F-C642-A057-8489886E1CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70580" yWindow="-7260" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
   <si>
     <t>code</t>
   </si>
@@ -541,6 +541,17 @@
   <si>
     <t>os</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1f040399-3b61-4e93-918f-a20295a9e66c</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1547,7 +1558,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>65</v>
@@ -1556,10 +1567,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -1567,19 +1578,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -1587,19 +1598,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -1607,19 +1618,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -1627,19 +1638,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -1647,19 +1658,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -1667,19 +1678,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -1687,19 +1698,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -1707,19 +1718,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -1727,19 +1738,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
@@ -1747,19 +1758,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -1767,19 +1778,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C37" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -1787,19 +1798,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
@@ -1807,19 +1818,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -1827,19 +1838,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -1847,19 +1858,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -1867,52 +1878,72 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C42" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>131</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="5">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="5">
         <v>3</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>133</v>
       </c>
     </row>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D961F95-962F-C642-A057-8489886E1CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9278264-736F-9343-B9D1-7DC696B67260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70580" yWindow="-7260" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="44540" yWindow="-4640" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>code</t>
   </si>
@@ -428,17 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm.unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d8e4dad5-9525-433d-91e2-ae181e364f13</t>
-  </si>
-  <si>
     <t>zero.wh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,6 +541,120 @@
   </si>
   <si>
     <t>1f040399-3b61-4e93-918f-a20295a9e66c</t>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.authority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录业务分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.directory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.integration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.workflow.cat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.wh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库/位置类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.close.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>843a2e80-a0f1-4e8e-a7e8-6eef335dd0df</t>
+  </si>
+  <si>
+    <t>ec1d2d3f-f34a-4f6e-b9e4-220e128555be</t>
+  </si>
+  <si>
+    <t>2eb93f61-19a8-4dd1-bee9-b6d51d80426c</t>
+  </si>
+  <si>
+    <t>1a45834d-78ab-494a-a793-6bd5bbdcfb35</t>
+  </si>
+  <si>
+    <t>8e49bb98-f283-47bf-9307-051f0c4e44b0</t>
+  </si>
+  <si>
+    <t>40767066-9467-44fb-a12e-ca80559a74d1</t>
+  </si>
+  <si>
+    <t>c8a60fd6-e7e2-4574-a895-a3e26e0f6590</t>
+  </si>
+  <si>
+    <t>83d59852-eaca-4ed6-89d9-b3835d4301d5</t>
+  </si>
+  <si>
+    <t>4731f5df-4dda-44f6-9aad-b80b4620c04e</t>
+  </si>
+  <si>
+    <t>3140d191-ecb7-49b2-9777-2968f907003f</t>
+  </si>
+  <si>
+    <t>流程关闭代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1055,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1138,19 +1241,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -1158,19 +1261,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1178,19 +1281,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1198,19 +1301,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -1218,19 +1321,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1238,19 +1341,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1258,19 +1361,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1278,19 +1381,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -1298,19 +1401,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -1318,19 +1421,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -1338,19 +1441,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C15" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -1358,19 +1461,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1378,19 +1481,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C17" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -1398,19 +1501,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -1418,19 +1521,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -1438,19 +1541,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -1458,19 +1561,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -1478,19 +1581,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -1498,19 +1601,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -1518,19 +1621,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -1538,19 +1641,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1558,19 +1661,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -1578,19 +1681,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
@@ -1598,19 +1701,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -1618,19 +1721,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -1638,19 +1741,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -1658,19 +1761,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -1678,19 +1781,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
@@ -1698,19 +1801,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C33" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -1718,19 +1821,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -1738,19 +1841,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C35" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
@@ -1758,19 +1861,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C36" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
@@ -1778,19 +1881,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C37" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -1798,19 +1901,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
@@ -1818,19 +1921,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -1838,19 +1941,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C40" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -1858,19 +1961,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C41" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
@@ -1878,19 +1981,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C42" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -1898,53 +2001,233 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C43" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>131</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C44" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>132</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="5">
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="5">
         <v>3</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>133</v>
+      <c r="D54" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -1,216 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F447E0A5-C989-064D-8B9D-8A72583C14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="48120" yWindow="-5780" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView windowWidth="21600" windowHeight="10660"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+  <si>
+    <t>{TABLE}</t>
+  </si>
+  <si>
+    <t>X_TABULAR</t>
+  </si>
+  <si>
+    <t>数据字典</t>
+  </si>
+  <si>
+    <t>列表字典主键</t>
+  </si>
+  <si>
+    <t>列表字典类型</t>
+  </si>
+  <si>
+    <t>列表排序</t>
+  </si>
+  <si>
+    <t>列表字典名称</t>
+  </si>
+  <si>
+    <t>列表字典代码</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>{TABLE}</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>X_TABULAR</t>
-  </si>
-  <si>
-    <t>数据字典</t>
-  </si>
-  <si>
-    <t>列表字典主键</t>
-  </si>
-  <si>
-    <t>列表字典类型</t>
-  </si>
-  <si>
-    <t>列表排序</t>
-  </si>
-  <si>
-    <t>列表字典名称</t>
-  </si>
-  <si>
-    <t>列表字典代码</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
     <t>236f7ddc-ffdd-43bb-8095-22732c943d30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zero.category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资源树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>resource.tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504b146a-2509-4a85-86e2-be84cd1f462b</t>
   </si>
   <si>
     <t>文件分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.file.tree</t>
+  </si>
+  <si>
+    <t>843a2e80-a0f1-4e8e-a7e8-6eef335dd0df</t>
+  </si>
+  <si>
+    <t>目录业务分类</t>
+  </si>
+  <si>
+    <t>zero.directory</t>
+  </si>
+  <si>
+    <t>c8a60fd6-e7e2-4574-a895-a3e26e0f6590</t>
+  </si>
+  <si>
+    <t>zero.tabular</t>
+  </si>
+  <si>
+    <t>集成分类</t>
   </si>
   <si>
     <t>zero.integration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eaae9d54-0a22-4d7f-b714-b8c236d607f8</t>
+  </si>
+  <si>
+    <t>文件服务器</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>f2fcd6ee-284f-4531-a05e-ee0b355adf2c</t>
   </si>
   <si>
     <t>邮件服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>e3b8c537-397c-4f41-922a-3b16dbd5f723</t>
   </si>
   <si>
     <t>RESTful接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>restful</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eaae9d54-0a22-4d7f-b714-b8c236d607f8</t>
-  </si>
-  <si>
-    <t>f2fcd6ee-284f-4531-a05e-ee0b355adf2c</t>
-  </si>
-  <si>
-    <t>e3b8c537-397c-4f41-922a-3b16dbd5f723</t>
+  </si>
+  <si>
+    <t>1f040399-3b61-4e93-918f-a20295a9e66c</t>
+  </si>
+  <si>
+    <t>短信接口</t>
+  </si>
+  <si>
+    <t>sms</t>
   </si>
   <si>
     <t>43d3a70f-e2a6-40aa-9fc5-e51ca7d7fb9b</t>
   </si>
   <si>
-    <t>zero.file.tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>504b146a-2509-4a85-86e2-be84cd1f462b</t>
-  </si>
-  <si>
-    <t>zero.tabular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三方接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>os</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1f040399-3b61-4e93-918f-a20295a9e66c</t>
-  </si>
-  <si>
-    <t>zero.category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录业务分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.directory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.integration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>843a2e80-a0f1-4e8e-a7e8-6eef335dd0df</t>
-  </si>
-  <si>
-    <t>c8a60fd6-e7e2-4574-a895-a3e26e0f6590</t>
+  </si>
+  <si>
+    <t>cca822f5-9ce9-4195-b2b6-7c948526ec97</t>
+  </si>
+  <si>
+    <t>job.group</t>
+  </si>
+  <si>
+    <t>计划任务</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>1314ba0e-6130-4c40-9c51-c6e6d86fae50</t>
+  </si>
+  <si>
+    <t>后台任务分组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -218,7 +182,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +189,6 @@
       <sz val="16"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -234,12 +196,162 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,25 +360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,8 +388,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -287,29 +585,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -317,77 +615,363 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,7 +1020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -469,26 +1053,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -521,23 +1088,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,112 +1229,107 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="55.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6615384615385" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6615384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6615384615385" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.6615384615385" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6615384615385" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="14">
         <v>1005</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F5"/>
@@ -792,170 +1337,204 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>1010</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
+      <c r="D6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14">
         <v>1015</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>39</v>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14">
         <v>1030</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>41</v>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="14">
         <v>1005</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="C10" s="14">
         <v>1010</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>23</v>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14">
         <v>1015</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>24</v>
+      <c r="D11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14">
         <v>1020</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>35</v>
+      <c r="D12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="A13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14">
         <v>1025</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>33</v>
+      <c r="D13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1030</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA47C8-3B26-454C-92A3-38D602B21115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10660"/>
+    <workbookView xWindow="75800" yWindow="-2300" windowWidth="30020" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -163,14 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +182,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,6 +190,7 @@
       <sz val="16"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -196,162 +198,19 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,25 +219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,194 +247,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -635,251 +308,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -896,12 +327,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,62 +341,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1229,28 +616,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="55.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6615384615385" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.6615384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6615384615385" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.6615384615385" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6615384615385" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1267,29 +654,29 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F3"/>
@@ -1297,19 +684,19 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4"/>
@@ -1317,19 +704,19 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1005</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F5"/>
@@ -1337,19 +724,19 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>1010</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F6"/>
@@ -1357,19 +744,19 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>1015</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F7"/>
@@ -1377,19 +764,19 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14">
-        <v>1030</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="12">
+        <v>4005</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F8"/>
@@ -1397,19 +784,19 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>1005</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F9"/>
@@ -1417,19 +804,19 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>1010</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F10"/>
@@ -1437,19 +824,19 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>1015</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F11"/>
@@ -1457,19 +844,19 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>1020</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
       <c r="F12"/>
@@ -1477,26 +864,26 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>1025</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1513,7 +900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1534,7 +921,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA47C8-3B26-454C-92A3-38D602B21115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77238EEA-9832-904C-B3F9-F657AA62ADA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75800" yWindow="-2300" windowWidth="30020" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -91,61 +91,7 @@
     <t>zero.directory</t>
   </si>
   <si>
-    <t>c8a60fd6-e7e2-4574-a895-a3e26e0f6590</t>
-  </si>
-  <si>
     <t>zero.tabular</t>
-  </si>
-  <si>
-    <t>集成分类</t>
-  </si>
-  <si>
-    <t>zero.integration</t>
-  </si>
-  <si>
-    <t>eaae9d54-0a22-4d7f-b714-b8c236d607f8</t>
-  </si>
-  <si>
-    <t>文件服务器</t>
-  </si>
-  <si>
-    <t>ftp</t>
-  </si>
-  <si>
-    <t>f2fcd6ee-284f-4531-a05e-ee0b355adf2c</t>
-  </si>
-  <si>
-    <t>邮件服务器</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>e3b8c537-397c-4f41-922a-3b16dbd5f723</t>
-  </si>
-  <si>
-    <t>RESTful接口</t>
-  </si>
-  <si>
-    <t>restful</t>
-  </si>
-  <si>
-    <t>1f040399-3b61-4e93-918f-a20295a9e66c</t>
-  </si>
-  <si>
-    <t>短信接口</t>
-  </si>
-  <si>
-    <t>sms</t>
-  </si>
-  <si>
-    <t>43d3a70f-e2a6-40aa-9fc5-e51ca7d7fb9b</t>
-  </si>
-  <si>
-    <t>第三方接口</t>
-  </si>
-  <si>
-    <t>os</t>
   </si>
   <si>
     <t>cca822f5-9ce9-4195-b2b6-7c948526ec97</t>
@@ -622,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -764,157 +710,37 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12">
-        <v>4005</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C9" s="2">
+        <v>1030</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1005</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1010</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1015</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1020</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1025</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1010</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1030</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
